--- a/data/excel_files_reduced_clean/test_excel_11_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_11_reduced_clean.xlsx
@@ -1,34 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced_clean/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E8F1B-027B-274C-988C-02E80ECBF8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Financial Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FinancialData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost_of_Goods_Sold</t>
+  </si>
+  <si>
+    <t>Operating_Expenses</t>
+  </si>
+  <si>
+    <t>Gross_Profit</t>
+  </si>
+  <si>
+    <t>Net_Profit</t>
+  </si>
+  <si>
+    <t>Profit_Margin</t>
+  </si>
+  <si>
+    <t>Cumulative_Revenue</t>
+  </si>
+  <si>
+    <t>Average_Revenue</t>
+  </si>
+  <si>
+    <t>Profit/Loss_Check</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +99,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,245 +401,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cost_of_Goods_Sold</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Operating_Expenses</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Gross_Profit</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Net_Profit</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Profit_Margin</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Cumulative_Revenue</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Average_Revenue</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Profit/Loss_Check</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>44562</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1626</v>
       </c>
-      <c r="C2" t="n">
-        <v>826.8847662430624</v>
-      </c>
-      <c r="D2" t="n">
-        <v>298.4201857828101</v>
+      <c r="C2">
+        <v>826.88476624306236</v>
+      </c>
+      <c r="D2">
+        <v>298.42018578281011</v>
       </c>
       <c r="E2">
         <f>B2-C2</f>
-        <v/>
+        <v>799.11523375693764</v>
       </c>
       <c r="F2">
         <f>E2-D2</f>
-        <v/>
+        <v>500.69504797412753</v>
       </c>
       <c r="G2">
         <f>(F2/B2)</f>
-        <v/>
+        <v>0.30793053380942653</v>
       </c>
       <c r="H2">
         <f>SUM(B2:B2)</f>
-        <v/>
+        <v>1626</v>
       </c>
       <c r="I2">
         <f>AVERAGE(B2:B2)</f>
-        <v/>
-      </c>
-      <c r="J2">
+        <v>1626</v>
+      </c>
+      <c r="J2" t="str">
         <f>IF(G2&gt;0, "Profit", "Loss")</f>
-        <v/>
+        <v>Profit</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>44563</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1959</v>
       </c>
-      <c r="C3" t="n">
-        <v>838.8141113451121</v>
-      </c>
-      <c r="D3" t="n">
-        <v>258.7408147279631</v>
+      <c r="C3">
+        <v>838.81411134511211</v>
+      </c>
+      <c r="D3">
+        <v>258.74081472796308</v>
       </c>
       <c r="E3">
         <f>B3-C3</f>
-        <v/>
+        <v>1120.185888654888</v>
       </c>
       <c r="F3">
         <f>E3-D3</f>
-        <v/>
+        <v>861.44507392692492</v>
       </c>
       <c r="G3">
         <f>(F3/B3)</f>
-        <v/>
+        <v>0.43973714850787388</v>
       </c>
       <c r="H3">
-        <f>SUM(B2:B3)</f>
-        <v/>
+        <f>SUM(B3:B3)</f>
+        <v>1959</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(B2:B3)</f>
-        <v/>
-      </c>
-      <c r="J3">
+        <f>AVERAGE(B3:B3)</f>
+        <v>1959</v>
+      </c>
+      <c r="J3" t="str">
         <f>IF(G3&gt;0, "Profit", "Loss")</f>
-        <v/>
+        <v>Profit</v>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
